--- a/biology/Botanique/Parc_de_Saumont/Parc_de_Saumont.xlsx
+++ b/biology/Botanique/Parc_de_Saumont/Parc_de_Saumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Saumont est le principal parc public de la ville d'Aoste, inauguré en 2008.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Saumont se situe dans la localité du même nom, le long du torrent Buthier, au nord de la ville d'Aoste.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La superficie du parc dépasse légèrement les 16 000 m². À l'intérieur, on y trouve des parcours piétonniers et cyclables, avec une aire de jeu de 600 m² et trois petits lacs dont la superficie totale s'élève à 1 500 m² environ.
 			Panneau avec le plan et le règlement du parc
